--- a/【小轮子】/【20180803】/rain_week_young.xlsx
+++ b/【小轮子】/【20180803】/rain_week_young.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50F7644-8291-4106-9A85-BFCA25F61A2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE14EA7-BC73-4F3A-AEF4-A04B95CD6569}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{D505BA26-B2EE-4AF5-B40E-BA2A97FD11A3}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E0256-456E-47EE-955A-E5E8D159A486}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E156"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.2857142857142857</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1005,13 +1005,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1252,15 +1252,15 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1294,13 +1294,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
         <v>0.2</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2246,13 +2246,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2323,15 +2323,15 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2340,15 +2340,15 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2442,35 +2442,35 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D121">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B122">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
         <v>0.2</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B124">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2504,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2547,12 +2547,12 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>0.2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2564,12 +2564,12 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>0.42857142857142855</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1.6</v>
+        <v>0.25</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2833,15 +2833,15 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2850,15 +2850,15 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3040,6 +3040,23 @@
         <v>0</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
